--- a/medicine/Autisme/Dan_Aykroyd/Dan_Aykroyd.xlsx
+++ b/medicine/Autisme/Dan_Aykroyd/Dan_Aykroyd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Aykroyd, dit Dan Aykroyd, est un acteur, producteur et scénariste canadien, né le 1er juillet 1952 à Ottawa (Ontario).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Edward Aykroyd est né le 1er juillet 1952 à Ottawa.
 Sa mère est Franco-Ontarienne et Aykroyd parle le français avec un accent franco-ontarien (que l'on peut entendre dans le film Coneheads), mais il donne rarement des entretiens en français, faute de pratique depuis des années.
@@ -543,16 +557,18 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Avant de se faire connaître à la télévision, Dan Aykroyd fit des études de criminologie qu'il abandonna. Rencontré lors du tournage du film Doctor Detroit, il épousa Donna Dixon en 1983 et eut 3 filles. Il se fait connaître du grand public américain grâce à sa participation à l'émission télévisée Saturday Night Live entre 1975 et 1979.
 Il débute avec Steven Spielberg dans 1941 puis obtient ses plus grands rôles dans The Blues Brothers avec son meilleur ami John Belushi, mort en 1982. La comédie Un fauteuil pour deux l'impose avec son partenaire Eddie Murphy en 1983. C'est la consécration l'année suivante avec le film-phénomène SOS Fantômes qui connaîtra deux suites, en 1989 et 2021. Parmi ses autres films notables durant cette décennie, on peut citer J'ai épousé une extra-terrestre en 1988 avec Kim Basinger et Miss Daisy et son chauffeur en 1989 aux côtés de Jessica Tandy et Morgan Freeman.
 Durant les années 1990, il partage également l'affiche de nombreux films tels que My Girl avec Macaulay Culkin et Jamie Lee Curtis paru en 1991, ainsi que Les Experts (1992) avec Robert Redford et Sidney Poitier, Chaplin avec Kevin Kline et Diane Lane. Il fait également un caméo dans le film Casper en 1995. En 1998, il prête sa voix au film d'animation à succès Fourmiz, tout en participant à la suite de Blues Brothers : Blues Brothers 2000.
 En 2000, l'acteur est à l'affiche du drame Chez les heureux du monde, porté par Gillian Anderson.
 Il joue en 2001 dans le blockbuster Pearl Harbor de Michael Bay et dans Le Sortilège du scorpion de jade de Woody Allen. La même année, Ivan Reitman revient au fantastique en mettant en scène David Duchovny en chasseur d'extra-terrestres dans la comédie Évolution, dont il partage également l'affiche.
-En 2002, il apparaît dans Crossroads, aux côtés de la chanteuse Britney Spears et de Kim Cattrall. À sa sortie, le film est vivement critiqué par les critiques qui le qualifient de « navet », mais rencontre néanmoins un certain succès, rapportant plus de 61 millions de dollars au box-office[1].
+En 2002, il apparaît dans Crossroads, aux côtés de la chanteuse Britney Spears et de Kim Cattrall. À sa sortie, le film est vivement critiqué par les critiques qui le qualifient de « navet », mais rencontre néanmoins un certain succès, rapportant plus de 61 millions de dollars au box-office.
 En 2004, il obtient un rôle dans Amour et amnésie avec Drew Barrymore et Adam Sandler, qui est un triomphe international, suivi de la comédie Un Noël de folie !, aux côtés de Tim Allen et Jamie Lee Curtis, au  succès considérable.
-Il est aussi choisie pour intégrer le casting du film Sexy Devil, aux cotés de Alec Baldwin, Jennifer Love Hewitt, Anthony Hopkins et Kim Cattrall, qui sort en 2007 sur les écrans[2].
+Il est aussi choisie pour intégrer le casting du film Sexy Devil, aux cotés de Alec Baldwin, Jennifer Love Hewitt, Anthony Hopkins et Kim Cattrall, qui sort en 2007 sur les écrans.
 En 2010, il prête sa voix au personnage principal du film Yogi l'ours, comprenant en vedettes Justin Timberlake et Anna Faris, qui récolte 203.5 millions de dollars de recettes dans le monde.
 </t>
         </is>
@@ -584,13 +600,59 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acteur au cinéma
-Années 1970
-1977 : Love at First Sight de Rex Bromfield : Roy
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Années 1970</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1977 : Love at First Sight de Rex Bromfield : Roy
 1979 : Mr. Mike's Mondo Video : Jack Lord priest / Himself
-1979 : 1941 de Steven Spielberg : Sgt. Frank Tree
-Années 1980
-1980 : The Blues Brothers (The Blues Brothers) de John Landis : Elwood Blues
+1979 : 1941 de Steven Spielberg : Sgt. Frank Tree</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Années 1980</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1980 : The Blues Brothers (The Blues Brothers) de John Landis : Elwood Blues
 1981 : Les Voisins (Neighbors) de John G. Avildsen : Vic
 1983 : Doctor Detroit de Michael Pressman : Clifford Skridlow
 1983 : Un fauteuil pour deux (Trading Places) de John Landis : Louis Winthorpe III
@@ -607,9 +669,47 @@
 1988 : Le Golf en folie 2 (Caddyshack II) de Allan Arkush : Capitaine Tom Everett
 1988 : J'ai épousé une extra-terrestre (My Stepmother Is an Alien) de Richard Benjamin : Steven Mills
 1989 : SOS Fantômes 2 (Ghostbusters II) d'Ivan Reitman : Dr Raymond « Ray » Stantz
-1989 : Miss Daisy et son chauffeur (Driving Miss Daisy) de Bruce Beresford : Boolie Werthan
-Années 1990
-1990 : Masters of Menace de Daniel Raskov : Johnny Lewis
+1989 : Miss Daisy et son chauffeur (Driving Miss Daisy) de Bruce Beresford : Boolie Werthan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Années 1990</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1990 : Masters of Menace de Daniel Raskov : Johnny Lewis
 1990 : Loose Cannons de Bob Clark : Ellis Fielding
 1991 : Tribunal fantôme (Nothing But Trouble) de Dan Aykroyd : Juge Alvin 'J.P' Valkenheiser &amp; Bobo
 1991 : My Girl de Howard Zieff : Harry Sultenfuss
@@ -635,9 +735,47 @@
 1998 : Blues Brothers 2000 de John Landis : Elwood Blues
 1998 : Fourmiz (Antz) d'Eric Darnell et Tim Johnson : Chip (voix)
 1998 : Susan a un plan (Susan's Plan) de John Landis : Bob
-1999 : Diamonds de John Asher : Lance Agensky
-Années 2000
-2000 : Stardom de Denys Arcand : Barry Levine
+1999 : Diamonds de John Asher : Lance Agensky</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Années 2000</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2000 : Stardom de Denys Arcand : Barry Levine
 2000 : Loser de Amy Heckerling : M. Tanneck
 2000 : Chez les heureux du monde (The House of Mirth) de Terence Davies : Augustus Trenor (Gus)
 2001 : Pearl Harbor de Michael Bay : Capitaine Thurman
@@ -652,35 +790,217 @@
 2004 : Un Noël de folie ! (Christmas with the Krank) de Joe Roth : Vic Frohmeyer
 2007 : Sexy Devil (Shortcut to happiness ou The Devil and Daniel Webster) de Alec Baldwin : Julius Jenson
 2007 : Quand Chuck rencontre Larry (I now Pronounce You Chuck and Larry) de Dennis Dugan : Capitaine P. Tucker
-2008 : War, Inc. de Joshua Seftel : Vice-président
-Années 2010
-2010 : Yogi l'ours (Yogi Bear) d'Eric Brevig : Yogi (voix)
+2008 : War, Inc. de Joshua Seftel : Vice-président</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Années 2010</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2010 : Yogi l'ours (Yogi Bear) d'Eric Brevig : Yogi (voix)
 2012 : Moi, député (The Campaign) de Jay Roach : Wade Motch
 2013 : Legends of Oz: Dorothy's Return de Will Finn et Dan St. Pierre (en) : l'épouvantail (voix)
 2014 : Get On Up de Tate Taylor : Ben Bart
 2014 : Tammy de Ben Falcone : Don
 2015 : Pixels de Chris Columbus : le présentateur du championnat de jeu vidéo d'arcade en 1982
-2016 : SOS Fantômes de Paul Feig : le chauffeur de taxi (caméo)
-Années 2020
-2020 : SOS Fantômes : L'Héritage (Ghostbusters: Afterlife) de Jason Reitman : Dr Raymond Stantz
-2024 : SOS Fantômes : La Menace de glace (Ghostbusters: Frozen Empire) de Gil Kenan : Dr Raymond Stantz
-Télévision
-1993 - 1994 : Une Nounou d'Enfer (The Nanny): Réparateur de réfrigérateurs
+2016 : SOS Fantômes de Paul Feig : le chauffeur de taxi (caméo)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acteur au cinéma</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Années 2020</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2020 : SOS Fantômes : L'Héritage (Ghostbusters: Afterlife) de Jason Reitman : Dr Raymond Stantz
+2024 : SOS Fantômes : La Menace de glace (Ghostbusters: Frozen Empire) de Gil Kenan : Dr Raymond Stantz</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1993 - 1994 : Une Nounou d'Enfer (The Nanny): Réparateur de réfrigérateurs
 1996 : Psi Factor, chroniques du paranormal ("PSI Factor: Chronicles of the Paranormal") : Le Présentateur
 1997 - 1998 : Un pasteur d'enfer (Soul Man) : Révérend Mike Weber
 1998 : The Arrow : Crawford Gordon
 2001 : Earth vs. the Spider de Scott Ziehl : Détective Insp. Jack Grillo
 2009 : According to Jim
-2011 : The Defenders
-Téléfilms
-1975 : Coming Up Rosie : Purvis Bickle
+2011 : The Defenders</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Téléfilms</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1975 : Coming Up Rosie : Purvis Bickle
 1977 : Things We Did Last Summer : Elwood Blues
 1978 : All You Need Is Cash : Brian Thigh
 1983 : The Coneheads : Beldar (voix)
 1991 : Two-Fisted Tales : Milligan (segment "Yellow")
-2013 : Ma vie avec Liberace (Behind the Candelabra) de Steven Soderbergh : Seymour Heller
-Comme scénariste
-1980 : The Blues Brothers (The Blues Brothers)
+2013 : Ma vie avec Liberace (Behind the Candelabra) de Steven Soderbergh : Seymour Heller</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Comme scénariste</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1980 : The Blues Brothers (The Blues Brothers)
 1981 : Steve Martin's Best Show Ever (TV)
 1984 : SOS Fantômes (Ghost Busters)
 1985 : The Best of John Belushi (vidéo)
@@ -690,47 +1010,154 @@
 1991 : Tribunal fantôme (Nothing But Trouble)
 1993 : The Best of the Blues Brothers (vidéo)
 1993 : Coneheads
-1998 : Blues Brothers 2000
-Comme réalisateur
-1991 : Tribunal fantôme (Nothing But Trouble)
-Comme producteur
-1988 : Mars: Base One (TV)
+1998 : Blues Brothers 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Comme réalisateur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1991 : Tribunal fantôme (Nothing But Trouble)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Comme producteur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1988 : Mars: Base One (TV)
 2016 : SOS Fantômes (Ghostbusters) de Paul Feig
 2020 : SOS Fantômes : L'Héritage (Ghostbusters 2020) de Jason Reitman</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dan_Aykroyd</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Récompenses
-1989 : Razzie Award du pire second rôle masculin pour Caddyshack II
-1992 : Razzie Award du pire second rôle masculin pour Tribunal fantôme (Nothing But Trouble)
-Nominations
-1985 : Prix Hugo du meilleur film pour SOS Fantômes (1984) partagé avec Ivan Reitman (Réalisateur) et Harold Ramis
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1989 : Razzie Award du pire second rôle masculin pour Caddyshack II
+1992 : Razzie Award du pire second rôle masculin pour Tribunal fantôme (Nothing But Trouble)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1985 : Prix Hugo du meilleur film pour SOS Fantômes (1984) partagé avec Ivan Reitman (Réalisateur) et Harold Ramis
 62e cérémonie des Oscars 1990 : Meilleur acteur dans un second rôle pour Miss Daisy et son chauffeur (1989).
 1990 : American Comedy Awards du meilleur acteur dans un second rôle pour Miss Daisy et son chauffeur (1989)
 12e cérémonie des Razzie Awards 1992 : Pire réalisateur pour Tribunal fantôme (Nothing But Trouble) (1991).
@@ -740,34 +1167,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dan_Aykroyd</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Voix francophones</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, Dan Aykroyd a été régulièrement doublé par Richard Darbois[3] de 1984 à 2007 (sans compter le film d'animation Yogi l'ours, sorti en 2010, pour lequel il prête sa voix, ainsi que SOS Fantômes : L'Héritage sorti en 2021 puis SOS Fantômes : La Menace de glace sorti en 2024). Il a également, de manière très occasionnelle, été doublé par Dominique Collignon-Maurin ou encore Patrick Préjean. De 2013 à 2015, Patrick Béthune[4] a été une de ses nouvelles voix et l'a doublé à trois reprises.
-Au Québec, Mario Desmarais[5] est la voix québécoise régulière de l'acteur.
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, Dan Aykroyd a été régulièrement doublé par Richard Darbois de 1984 à 2007 (sans compter le film d'animation Yogi l'ours, sorti en 2010, pour lequel il prête sa voix, ainsi que SOS Fantômes : L'Héritage sorti en 2021 puis SOS Fantômes : La Menace de glace sorti en 2024). Il a également, de manière très occasionnelle, été doublé par Dominique Collignon-Maurin ou encore Patrick Préjean. De 2013 à 2015, Patrick Béthune a été une de ses nouvelles voix et l'a doublé à trois reprises.
+Au Québec, Mario Desmarais est la voix québécoise régulière de l'acteur.
 Liste des voix françaises de Dan Aykroyd
 En France
 Au Québec
@@ -775,33 +1204,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dan_Aykroyd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Autisme/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dan_Aykroyd</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Anecdotes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Il est autiste[7],[8]..
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Il est autiste,..
 Il est atteint de syndactylie, une malformation congénitale caractérisée par la fusion de doigts ou d'orteils. Dans Mr. Mike's Mondo Video (1979), il ôte ses chaussures devant la caméra, révélant cette malformation.
 Il est également atteint d'hétérochromie (yeux vairons). L'un est bleu, l'autre est marron.
 En 1985, il chante dans le morceau We Are the World de Michael Jackson et Lionel Richie.
